--- a/data/nurse_room_junction_table.xlsx
+++ b/data/nurse_room_junction_table.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="18" documentId="11_F25DC773A252ABDACC10480A791A596E5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2E3F412-C4CE-4D08-9B5C-887CC739402E}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="1920" windowWidth="20130" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,7 +465,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
